--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2227367.935972867</v>
+        <v>2324766.587063242</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359932</v>
+        <v>6663746.095359934</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>347.8765173229212</v>
+        <v>131.062542400503</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958797</v>
+        <v>162.9947207958795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174344</v>
+        <v>72.50477145174311</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>28.467016903011</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>45.87488908974791</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356738</v>
+        <v>66.70865780356729</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100847</v>
+        <v>59.24433418100831</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>64.96788767956663</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>54.30080173848776</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.28889559408</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.42820963260073</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>284.2714565048808</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.1300975766955</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773045</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>54.17431468188772</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>142.6271181085174</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>298.3654036477783</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>307.9222910483171</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.2305361491565</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784702</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>59.90320919298844</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9308270352741</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,7 +1703,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
         <v>18.81721868247745</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>80.84493457113702</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>182.1861997622149</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292546</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174141</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>136.9968647819697</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>106.8372856693777</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174135</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2296,7 +2298,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>249.8016791897703</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2336,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V25" t="n">
-        <v>99.36052454569999</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>82.70057996958582</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>126.722609778237</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>110.6977437732684</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -3004,13 +3006,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>149.241951510622</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>79.88066061577869</v>
       </c>
       <c r="W34" t="n">
-        <v>69.82724760425805</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>69.60662835550637</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>221.0026357237087</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>67.63321619982482</v>
       </c>
       <c r="I40" t="n">
-        <v>18.93482921064982</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.75769145492315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>36.15999212057441</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -4031,7 +4033,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>138.6444210303385</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1426.977992340281</v>
+        <v>1757.141328283357</v>
       </c>
       <c r="C2" t="n">
-        <v>1426.977992340281</v>
+        <v>1757.141328283357</v>
       </c>
       <c r="D2" t="n">
-        <v>1426.977992340281</v>
+        <v>1757.141328283357</v>
       </c>
       <c r="E2" t="n">
-        <v>1041.189739742037</v>
+        <v>1371.353075685113</v>
       </c>
       <c r="F2" t="n">
-        <v>630.2038349524291</v>
+        <v>960.3671708955053</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307499</v>
+        <v>542.1134942738261</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307499</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369982</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015907</v>
+        <v>138.9642385015911</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060703</v>
+        <v>397.0764468060715</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927179</v>
+        <v>769.5640925927203</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689011</v>
+        <v>1200.634914689014</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811679</v>
+        <v>1624.048915811683</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.67911263367</v>
+        <v>1978.679112633675</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054129</v>
+        <v>2243.673398054134</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684985</v>
+        <v>2365.451310684991</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804436</v>
+        <v>2292.214167804442</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222156</v>
+        <v>2109.431301222163</v>
       </c>
       <c r="T2" t="n">
-        <v>2109.431301222156</v>
+        <v>1889.527734748512</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.431301222156</v>
+        <v>1889.527734748512</v>
       </c>
       <c r="V2" t="n">
-        <v>1778.368413878585</v>
+        <v>1889.527734748512</v>
       </c>
       <c r="W2" t="n">
-        <v>1778.368413878585</v>
+        <v>1889.527734748512</v>
       </c>
       <c r="X2" t="n">
-        <v>1778.368413878585</v>
+        <v>1889.527734748512</v>
       </c>
       <c r="Y2" t="n">
-        <v>1778.368413878585</v>
+        <v>1889.527734748512</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>843.1583574384886</v>
+        <v>643.6546745992257</v>
       </c>
       <c r="C3" t="n">
-        <v>814.4037949101946</v>
+        <v>469.2016453180987</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>320.2672356568474</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>161.0297806513919</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435657</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369982</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683007</v>
+        <v>108.204863068301</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138122</v>
+        <v>130.1591986422605</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568446</v>
+        <v>501.7702691852934</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459033</v>
+        <v>987.4020823874824</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101581</v>
+        <v>1501.594138030031</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119898</v>
+        <v>1905.563735119903</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695906</v>
+        <v>2212.781883695912</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684985</v>
+        <v>2365.451310684991</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885987</v>
+        <v>2305.608548885993</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926778</v>
+        <v>2144.554785926784</v>
       </c>
       <c r="T3" t="n">
-        <v>2144.554785926778</v>
+        <v>1945.051103087515</v>
       </c>
       <c r="U3" t="n">
-        <v>1916.374958388988</v>
+        <v>1716.871275549725</v>
       </c>
       <c r="V3" t="n">
-        <v>1681.222850157245</v>
+        <v>1481.719167317982</v>
       </c>
       <c r="W3" t="n">
-        <v>1426.985493429043</v>
+        <v>1227.48181058978</v>
       </c>
       <c r="X3" t="n">
-        <v>1219.133993223511</v>
+        <v>1019.630310384248</v>
       </c>
       <c r="Y3" t="n">
-        <v>1011.373694458557</v>
+        <v>811.8700116192938</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.3090262136997</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="C4" t="n">
-        <v>47.3090262136997</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="D4" t="n">
-        <v>47.3090262136997</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="E4" t="n">
-        <v>47.3090262136997</v>
+        <v>466.9259816722266</v>
       </c>
       <c r="F4" t="n">
-        <v>47.3090262136997</v>
+        <v>401.3018527029674</v>
       </c>
       <c r="G4" t="n">
-        <v>47.3090262136997</v>
+        <v>401.3018527029674</v>
       </c>
       <c r="H4" t="n">
-        <v>47.3090262136997</v>
+        <v>242.3974393348134</v>
       </c>
       <c r="I4" t="n">
-        <v>47.3090262136997</v>
+        <v>102.158320899041</v>
       </c>
       <c r="J4" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369982</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181573</v>
+        <v>88.80529410181609</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365657</v>
+        <v>197.4326649365664</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950591</v>
+        <v>322.3541198950601</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896733</v>
+        <v>449.7398382896747</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885918</v>
+        <v>551.3848716885935</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="U4" t="n">
-        <v>325.6583726343348</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="V4" t="n">
-        <v>70.97388442844792</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="W4" t="n">
-        <v>47.3090262136997</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="X4" t="n">
-        <v>47.3090262136997</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.3090262136997</v>
+        <v>614.8390752546197</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1760.906005007191</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C5" t="n">
-        <v>1391.94348806678</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>1033.677789460029</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>1033.677789460029</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>622.6918846704218</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.505845071313</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>2147.505845071313</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,13 +4652,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>154.3210362349349</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>154.3210362349349</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>154.3210362349349</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>154.3210362349349</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>154.3210362349349</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>154.3210362349349</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>554.6442689908469</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U7" t="n">
-        <v>554.6442689908469</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V7" t="n">
-        <v>554.6442689908469</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="W7" t="n">
-        <v>554.6442689908469</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="X7" t="n">
-        <v>554.6442689908469</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>323.2572191628418</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.952954307291</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>764.6872557005402</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>378.8990031022959</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4844,10 +4846,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>379.595625386053</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5020,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5048,13 +5050,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5066,19 +5068,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5109,7 +5111,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5118,22 +5120,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902953</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>508.5026418377232</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C13" t="n">
-        <v>508.5026418377232</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>508.5026418377232</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1895.835173990573</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W13" t="n">
-        <v>909.2731541783409</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X13" t="n">
-        <v>909.2731541783409</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y13" t="n">
-        <v>690.1511066679629</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5257,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5285,13 +5287,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5306,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5355,19 +5357,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>657.5961351655762</v>
+        <v>736.381378691721</v>
       </c>
       <c r="C16" t="n">
-        <v>657.5961351655762</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="D16" t="n">
-        <v>507.4794957532405</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E16" t="n">
-        <v>507.4794957532405</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
         <v>192.8867116300491</v>
@@ -5437,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1490.80066028278</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1201.697793408424</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>947.0133052025369</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W16" t="n">
-        <v>657.5961351655762</v>
+        <v>964.3709295897384</v>
       </c>
       <c r="X16" t="n">
-        <v>657.5961351655762</v>
+        <v>736.381378691721</v>
       </c>
       <c r="Y16" t="n">
-        <v>657.5961351655762</v>
+        <v>736.381378691721</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>806.161341878638</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1670.680157531993</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M17" t="n">
-        <v>2649.230460361821</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3678.485594538922</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4391.840681985868</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5552,13 +5554,13 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>511.9395339702917</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
-        <v>343.0033510423848</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5700,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X19" t="n">
-        <v>511.9395339702917</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y19" t="n">
-        <v>511.9395339702917</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5731,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5750,22 +5752,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>351.3014367967928</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K20" t="n">
-        <v>685.1208104866391</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L20" t="n">
-        <v>1549.639626139994</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M20" t="n">
         <v>2528.189928969822</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196469</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075806</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
         <v>4405.689038432984</v>
@@ -5786,7 +5788,7 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.42128699119</v>
@@ -5820,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,25 +5831,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1001.463171152184</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>712.0460011152229</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>484.0564502172056</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>263.2638710736754</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,25 +5989,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>416.3606924710459</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>750.1800661608922</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1614.698881814247</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M23" t="n">
-        <v>2593.249184644075</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N23" t="n">
-        <v>3573.001456870722</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6014,25 +6016,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6069,7 +6071,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6078,16 +6080,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>972.7495048756253</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>803.8133219477185</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.657581931529</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1475.554715057173</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1375.190548849395</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1375.190548849395</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1375.190548849395</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1154.397969705865</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6205,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807095</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6308,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>654.7198286198654</v>
+        <v>1036.495701195955</v>
       </c>
       <c r="C28" t="n">
-        <v>654.7198286198654</v>
+        <v>867.5595182680486</v>
       </c>
       <c r="D28" t="n">
-        <v>654.7198286198654</v>
+        <v>717.4428788557128</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>569.5297852733197</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>422.6398377754093</v>
       </c>
       <c r="G28" t="n">
         <v>339.1038984121913</v>
@@ -6409,25 +6411,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V28" t="n">
-        <v>1125.785463487066</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="W28" t="n">
-        <v>836.3682934501052</v>
+        <v>1666.926296067742</v>
       </c>
       <c r="X28" t="n">
-        <v>836.3682934501052</v>
+        <v>1438.936745169725</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.3682934501052</v>
+        <v>1218.144166026195</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>351.3014367967928</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>685.1208104866391</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1549.639626139994</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M29" t="n">
-        <v>2528.189928969822</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>3507.942201196469</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6552,16 +6554,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>450.9198012134725</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>450.9198012134725</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>450.9198012134725</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>450.9198012134725</v>
       </c>
       <c r="G31" t="n">
         <v>339.1038984121913</v>
@@ -6652,19 +6654,19 @@
         <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1302.311063288258</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1302.311063288258</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>1302.311063288258</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X31" t="n">
-        <v>1302.311063288258</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>619.8559841413794</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.54203436749</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086363</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419656</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446541</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279159</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012238</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505718</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183573</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317989</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086246</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358044</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.517670152512</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387558</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>876.4469737784534</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C34" t="n">
-        <v>707.5107908505465</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D34" t="n">
-        <v>557.3941514382108</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E34" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6886,22 +6888,22 @@
         <v>1866.513008862231</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.513008862231</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.410141987875</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="V34" t="n">
-        <v>1577.410141987875</v>
+        <v>1564.058857456223</v>
       </c>
       <c r="W34" t="n">
-        <v>1506.87756865024</v>
+        <v>1274.641687419262</v>
       </c>
       <c r="X34" t="n">
-        <v>1278.888017752223</v>
+        <v>1046.652136521245</v>
       </c>
       <c r="Y34" t="n">
-        <v>1058.095438608693</v>
+        <v>825.859557377715</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6920,10 +6922,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6941,13 +6943,13 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622689</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6968,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7022,22 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>686.6979017231758</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="C37" t="n">
-        <v>686.6979017231758</v>
+        <v>312.7607075579274</v>
       </c>
       <c r="D37" t="n">
-        <v>536.5812623108401</v>
+        <v>312.7607075579274</v>
       </c>
       <c r="E37" t="n">
-        <v>388.668168728447</v>
+        <v>312.7607075579274</v>
       </c>
       <c r="F37" t="n">
-        <v>241.7782212305366</v>
+        <v>165.870760060017</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7117,28 +7119,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T37" t="n">
-        <v>1674.827124689057</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1674.827124689057</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1420.14263648317</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W37" t="n">
-        <v>1130.72546644621</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X37" t="n">
-        <v>907.490480866706</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y37" t="n">
-        <v>686.6979017231758</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.2139837551621</v>
@@ -7208,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7263,40 +7265,40 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>260.9043113423041</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="C40" t="n">
-        <v>260.9043113423041</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="D40" t="n">
-        <v>260.9043113423041</v>
+        <v>331.5802510734985</v>
       </c>
       <c r="E40" t="n">
-        <v>260.9043113423041</v>
+        <v>331.5802510734985</v>
       </c>
       <c r="F40" t="n">
-        <v>260.9043113423041</v>
+        <v>331.5802510734985</v>
       </c>
       <c r="G40" t="n">
-        <v>260.9043113423041</v>
+        <v>163.8774144482175</v>
       </c>
       <c r="H40" t="n">
-        <v>114.6871245601619</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7375,7 +7377,7 @@
         <v>481.6968904858343</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.9043113423041</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7390,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7411,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.328657580449</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807095</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7448,7 +7450,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7491,19 +7493,19 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
@@ -7543,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C43" t="n">
         <v>95.56103444839442</v>
@@ -7591,28 +7593,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1919.818221538466</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384227</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V43" t="n">
-        <v>909.27315417834</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413794</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X43" t="n">
-        <v>391.8664332433621</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.0738540998319</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7627,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,28 +7648,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1296.118160724479</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2274.668463554308</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N44" t="n">
-        <v>3254.420735780954</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7679,13 +7681,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7743,34 +7745,34 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
         <v>95.56103444839442</v>
@@ -7831,25 +7833,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.576850674229</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1734.576850674229</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1479.892362468342</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1339.847492740728</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>1111.85794184271</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>891.0653626991802</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>53.60948744535382</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>183.0065697095025</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8699,10 +8701,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>189.7998007892644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8936,10 +8938,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892655</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>189.7998007892643</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9176,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>13.98823883546996</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>67.53663776704337</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>133.2530576400263</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>410.4190035206666</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>67.53663776704337</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>67.53663776704411</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10589,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,16 +11074,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>103.7862464855155</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>229.1155640189945</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>159.6457400831808</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.65382631682067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>86.40188652749082</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>37.3627495139543</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.55208449419945</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>118.8723697196594</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2.335964134057718</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V25" t="n">
-        <v>152.777118778128</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>83.32522828944241</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>125.415033545591</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>55.32806448575985</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>136.9698866949909</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>172.2569827080493</v>
       </c>
       <c r="W34" t="n">
-        <v>216.695750732333</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>96.41917990352185</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>4.707019665328403</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>77.12179871449597</v>
       </c>
       <c r="I40" t="n">
-        <v>77.41759119918829</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>52.77216054947294</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26071,19 +26073,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>147.8785773062525</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>825403.6148750843</v>
+        <v>825403.6148750841</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>825403.6148750843</v>
+        <v>825403.6148750841</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>825403.6148750843</v>
+        <v>825403.6148750841</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>825403.6148750841</v>
+        <v>825403.6148750843</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825403.6148750841</v>
+        <v>825403.6148750843</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>825403.6148750841</v>
+        <v>825403.614875084</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>595622.6803304744</v>
+        <v>595622.6803304747</v>
       </c>
       <c r="F2" t="n">
+        <v>595622.6803304749</v>
+      </c>
+      <c r="G2" t="n">
         <v>595622.6803304745</v>
       </c>
-      <c r="G2" t="n">
-        <v>595622.6803304744</v>
-      </c>
       <c r="H2" t="n">
-        <v>595622.6803304745</v>
+        <v>595622.6803304751</v>
       </c>
       <c r="I2" t="n">
         <v>595622.6803304749</v>
@@ -26338,22 +26340,22 @@
         <v>595622.6803304749</v>
       </c>
       <c r="K2" t="n">
+        <v>595622.6803304746</v>
+      </c>
+      <c r="L2" t="n">
+        <v>595622.680330475</v>
+      </c>
+      <c r="M2" t="n">
         <v>595622.6803304747</v>
       </c>
-      <c r="L2" t="n">
-        <v>595622.6803304743</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>595622.6803304749</v>
-      </c>
-      <c r="N2" t="n">
-        <v>595622.6803304745</v>
       </c>
       <c r="O2" t="n">
         <v>595622.6803304744</v>
       </c>
       <c r="P2" t="n">
-        <v>595622.6803304745</v>
+        <v>595622.6803304749</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106463</v>
+        <v>493391.6844106481</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957447076</v>
+        <v>91792.63957446905</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832156</v>
+        <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220119</v>
+        <v>21342.09858220078</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861109</v>
+        <v>244465.9635861104</v>
       </c>
       <c r="C4" t="n">
-        <v>218780.324998335</v>
+        <v>218780.3249983351</v>
       </c>
       <c r="D4" t="n">
-        <v>218780.324998335</v>
+        <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>32032.95503079765</v>
+        <v>32032.95503079773</v>
       </c>
       <c r="F4" t="n">
+        <v>32032.95503079772</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32032.95503079768</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32032.95503079769</v>
+      </c>
+      <c r="I4" t="n">
         <v>32032.9550307977</v>
-      </c>
-      <c r="G4" t="n">
-        <v>32032.95503079765</v>
-      </c>
-      <c r="H4" t="n">
-        <v>32032.95503079768</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32032.95503079772</v>
       </c>
       <c r="J4" t="n">
         <v>32032.95503079772</v>
       </c>
       <c r="K4" t="n">
-        <v>32032.95503079771</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.95503079773</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="M4" t="n">
-        <v>32032.95503079771</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="N4" t="n">
-        <v>32032.95503079773</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="O4" t="n">
+        <v>32032.9550307977</v>
+      </c>
+      <c r="P4" t="n">
         <v>32032.95503079772</v>
-      </c>
-      <c r="P4" t="n">
-        <v>32032.95503079773</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140112</v>
+        <v>76261.10613140123</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-198337.4267299458</v>
+        <v>-198337.426729947</v>
       </c>
       <c r="C6" t="n">
-        <v>222349.2847619975</v>
+        <v>222349.2847619995</v>
       </c>
       <c r="D6" t="n">
-        <v>314141.924336468</v>
+        <v>314141.9243364681</v>
       </c>
       <c r="E6" t="n">
-        <v>-260171.2069474435</v>
+        <v>-260171.2069474432</v>
       </c>
       <c r="F6" t="n">
+        <v>467206.2070459635</v>
+      </c>
+      <c r="G6" t="n">
         <v>467206.2070459632</v>
       </c>
-      <c r="G6" t="n">
-        <v>467206.2070459631</v>
-      </c>
       <c r="H6" t="n">
-        <v>467206.2070459633</v>
+        <v>467206.2070459638</v>
       </c>
       <c r="I6" t="n">
+        <v>467206.2070459634</v>
+      </c>
+      <c r="J6" t="n">
+        <v>312479.6713627476</v>
+      </c>
+      <c r="K6" t="n">
+        <v>445864.1084637624</v>
+      </c>
+      <c r="L6" t="n">
+        <v>467206.2070459636</v>
+      </c>
+      <c r="M6" t="n">
+        <v>337563.8922070187</v>
+      </c>
+      <c r="N6" t="n">
         <v>467206.2070459635</v>
-      </c>
-      <c r="J6" t="n">
-        <v>312479.6713627479</v>
-      </c>
-      <c r="K6" t="n">
-        <v>445864.1084637622</v>
-      </c>
-      <c r="L6" t="n">
-        <v>467206.2070459629</v>
-      </c>
-      <c r="M6" t="n">
-        <v>337563.8922070188</v>
-      </c>
-      <c r="N6" t="n">
-        <v>467206.2070459632</v>
       </c>
       <c r="O6" t="n">
         <v>467206.207045963</v>
       </c>
       <c r="P6" t="n">
-        <v>467206.2070459632</v>
+        <v>467206.2070459635</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435485</v>
+        <v>306.3599178435497</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712477</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435485</v>
+        <v>306.3599178435497</v>
       </c>
       <c r="C3" t="n">
-        <v>71.3837463735382</v>
+        <v>71.38374637353689</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712477</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330948</v>
+        <v>82.92444508330789</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712477</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330948</v>
+        <v>82.92444508330789</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712477</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330948</v>
+        <v>82.92444508330789</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.85732434055939</v>
+        <v>251.6712992629776</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>144.2414820853047</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,13 +27469,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>99.19432330363597</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27509,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27543,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>80.45316034336462</v>
       </c>
       <c r="G4" t="n">
         <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3153692344725</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848792</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731856</v>
+        <v>39.90169565731838</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631664</v>
+        <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
         <v>214.3888609467086</v>
@@ -27591,13 +27593,13 @@
         <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.0947887039903</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>98.46238515859977</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.654072444099484</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>80.7913071104505</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>82.40798734956687</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>66.90748812322926</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>98.95375469339433</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>13.94035269263867</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672556</v>
+        <v>1.231597659672561</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212156</v>
+        <v>12.61309953212162</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452625</v>
+        <v>47.48116877452645</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676337</v>
+        <v>104.5303118676341</v>
       </c>
       <c r="K2" t="n">
-        <v>156.663840801573</v>
+        <v>156.6638408015736</v>
       </c>
       <c r="L2" t="n">
-        <v>194.355347678777</v>
+        <v>194.3553476787778</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589788</v>
+        <v>216.2577725589797</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095235</v>
+        <v>219.7570494095244</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811545</v>
+        <v>207.5103501811553</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579882</v>
+        <v>177.105282957989</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709648</v>
+        <v>132.9986917709653</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940624</v>
+        <v>77.36434648940657</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978839</v>
+        <v>28.06503166978851</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216616</v>
+        <v>5.391318755216638</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380444</v>
+        <v>0.09852781277380485</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540478</v>
+        <v>0.6589628421540504</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014093</v>
+        <v>6.364193765014119</v>
       </c>
       <c r="I3" t="n">
-        <v>22.6879750478477</v>
+        <v>22.68797504784779</v>
       </c>
       <c r="J3" t="n">
-        <v>62.2575376440366</v>
+        <v>62.25753764403685</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683578</v>
+        <v>106.4080480683582</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966497</v>
+        <v>143.0787521966503</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247339</v>
+        <v>166.9661552247346</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302319</v>
+        <v>171.3852525302326</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382922</v>
+        <v>156.7840232382929</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723813</v>
+        <v>125.8330009723818</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338335</v>
+        <v>84.11602876338371</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163466</v>
+        <v>40.91349997163483</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422101</v>
+        <v>12.23994577422106</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945481</v>
+        <v>2.656082683945491</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276631</v>
+        <v>0.04335281856276649</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654152</v>
+        <v>0.5524523108654175</v>
       </c>
       <c r="H4" t="n">
-        <v>4.91180327296706</v>
+        <v>4.911803272967079</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584358</v>
+        <v>16.61374767584365</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818486</v>
+        <v>39.05837837818501</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509096</v>
+        <v>64.18491393509122</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448184</v>
+        <v>82.13459174448218</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502141</v>
+        <v>86.59941087502175</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361401</v>
+        <v>84.54027044361436</v>
       </c>
       <c r="O4" t="n">
-        <v>78.0866229939589</v>
+        <v>78.08662299395922</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230437</v>
+        <v>66.81659585230464</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437582</v>
+        <v>46.26034759437601</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400312</v>
+        <v>24.84026481400322</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263642</v>
+        <v>9.627737090263681</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515864</v>
+        <v>2.360478055515874</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084087</v>
+        <v>0.03013376241084099</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33272,7 +33274,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O30" t="n">
         <v>557.7086478970249</v>
@@ -33503,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33740,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33983,7 +33985,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34226,7 +34228,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987486</v>
@@ -34463,7 +34465,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987486</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302117</v>
+        <v>92.58102251302159</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277572</v>
+        <v>260.7194023277578</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592402</v>
+        <v>376.250147259241</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245386</v>
+        <v>435.4250728245395</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249167</v>
+        <v>427.6909102249176</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222131</v>
+        <v>358.2123200222139</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742013</v>
+        <v>267.6709953742021</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.00799255642</v>
+        <v>123.0079925564205</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777874</v>
+        <v>61.51094631777899</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065774</v>
+        <v>22.17609653935306</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202347</v>
+        <v>375.3647177202353</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527155</v>
+        <v>490.5371850527162</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904521</v>
+        <v>519.3859147904528</v>
       </c>
       <c r="O3" t="n">
-        <v>197.1943485033503</v>
+        <v>408.050098070578</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979882</v>
+        <v>310.3213621979887</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132109</v>
+        <v>154.2115424132113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920811</v>
+        <v>41.91542210920836</v>
       </c>
       <c r="L4" t="n">
-        <v>109.724617004798</v>
+        <v>109.7246170047983</v>
       </c>
       <c r="M4" t="n">
-        <v>126.183287836862</v>
+        <v>126.1832878368623</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228426</v>
+        <v>128.672442822843</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079986</v>
+        <v>102.6717509079989</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719786</v>
+        <v>64.09515511719813</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>742.1016362021768</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>526.9910873446648</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
@@ -35896,16 +35898,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>264.7825436391894</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>258.3236387357559</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>324.0400586087388</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>866.0091179129988</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>641.306058528246</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>258.3236387357559</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36920,7 +36922,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525805</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>575.5896386552631</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37151,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37309,7 +37311,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
@@ -37318,7 +37320,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908542</v>
@@ -37388,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37631,7 +37633,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>988.434649323059</v>
@@ -37792,16 +37794,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>641.306058528246</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>502.5482327048871</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -37874,7 +37876,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127271</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>684.7056784113264</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127271</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2324766.587063242</v>
+        <v>2319026.472355025</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359934</v>
+        <v>6663746.095359935</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095089</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.062542400503</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>185.7104186084345</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174311</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164568</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>45.87488908974791</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>28.33842618974685</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356729</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100831</v>
+        <v>59.24433418100843</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>64.96788767956663</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3153692344725</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>109.9952554652623</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848776</v>
+        <v>54.30080173848788</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>284.2714565048808</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>401.9982192570611</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>54.17431468188772</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>298.3654036477783</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>27.8629879595168</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>47.14167849255889</v>
       </c>
       <c r="H10" t="n">
-        <v>142.2305361491565</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>70.27266146411722</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>59.90320919298844</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>80.84493457113702</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>73.53720539716808</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>136.9968647819697</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>219.332360810133</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2137,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>164.0494745376191</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2532,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>82.70057996958582</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>110.6977437732684</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>25.88443576551655</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.58927063054162</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>79.88066061577869</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>69.60662835550637</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>113.4342297262064</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>67.63321619982482</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>13.42874471571101</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>36.15999212057441</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>94.16217815422416</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1757.141328283357</v>
+        <v>1758.897680571375</v>
       </c>
       <c r="C2" t="n">
-        <v>1757.141328283357</v>
+        <v>1389.935163630963</v>
       </c>
       <c r="D2" t="n">
-        <v>1757.141328283357</v>
+        <v>1031.669465024213</v>
       </c>
       <c r="E2" t="n">
-        <v>1371.353075685113</v>
+        <v>645.8812124259684</v>
       </c>
       <c r="F2" t="n">
-        <v>960.3671708955053</v>
+        <v>234.8953076363609</v>
       </c>
       <c r="G2" t="n">
-        <v>542.1134942738261</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015911</v>
+        <v>138.9642385015909</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060715</v>
+        <v>397.0764468060706</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927203</v>
+        <v>769.5640925927187</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689014</v>
+        <v>1200.634914689012</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811683</v>
+        <v>1624.04891581168</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633675</v>
+        <v>1978.679112633671</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054134</v>
+        <v>2243.673398054131</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804442</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222163</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="T2" t="n">
-        <v>1889.527734748512</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="U2" t="n">
-        <v>1889.527734748512</v>
+        <v>2111.666335841489</v>
       </c>
       <c r="V2" t="n">
-        <v>1889.527734748512</v>
+        <v>2111.666335841489</v>
       </c>
       <c r="W2" t="n">
-        <v>1889.527734748512</v>
+        <v>1758.897680571375</v>
       </c>
       <c r="X2" t="n">
-        <v>1889.527734748512</v>
+        <v>1758.897680571375</v>
       </c>
       <c r="Y2" t="n">
-        <v>1889.527734748512</v>
+        <v>1758.897680571375</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>643.6546745992257</v>
+        <v>843.1583574384904</v>
       </c>
       <c r="C3" t="n">
-        <v>469.2016453180987</v>
+        <v>668.7053281573634</v>
       </c>
       <c r="D3" t="n">
-        <v>320.2672356568474</v>
+        <v>519.7709184961121</v>
       </c>
       <c r="E3" t="n">
-        <v>161.0297806513919</v>
+        <v>360.5334634906566</v>
       </c>
       <c r="F3" t="n">
-        <v>114.6915088435658</v>
+        <v>213.9989055175416</v>
       </c>
       <c r="G3" t="n">
-        <v>114.6915088435658</v>
+        <v>75.93369913263595</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="J3" t="n">
-        <v>108.204863068301</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="K3" t="n">
-        <v>130.1591986422605</v>
+        <v>130.1591986422588</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852934</v>
+        <v>501.7702691852913</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874824</v>
+        <v>987.4020823874798</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030031</v>
+        <v>1501.594138030028</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119903</v>
+        <v>1905.563735119899</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695912</v>
+        <v>2212.781883695908</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885993</v>
+        <v>2305.608548885989</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926784</v>
+        <v>2144.554785926779</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087515</v>
+        <v>2144.554785926779</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549725</v>
+        <v>1916.374958388989</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317982</v>
+        <v>1681.222850157247</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.48181058978</v>
+        <v>1426.985493429045</v>
       </c>
       <c r="X3" t="n">
-        <v>1019.630310384248</v>
+        <v>1219.133993223512</v>
       </c>
       <c r="Y3" t="n">
-        <v>811.8700116192938</v>
+        <v>1011.373694458558</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.8390752546197</v>
+        <v>360.1545870487315</v>
       </c>
       <c r="C4" t="n">
-        <v>614.8390752546197</v>
+        <v>360.1545870487315</v>
       </c>
       <c r="D4" t="n">
-        <v>614.8390752546197</v>
+        <v>360.1545870487315</v>
       </c>
       <c r="E4" t="n">
-        <v>466.9259816722266</v>
+        <v>360.1545870487315</v>
       </c>
       <c r="F4" t="n">
-        <v>401.3018527029674</v>
+        <v>213.2646395508212</v>
       </c>
       <c r="G4" t="n">
-        <v>401.3018527029674</v>
+        <v>213.2646395508212</v>
       </c>
       <c r="H4" t="n">
-        <v>242.3974393348134</v>
+        <v>213.2646395508212</v>
       </c>
       <c r="I4" t="n">
         <v>102.158320899041</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181609</v>
+        <v>88.80529410181583</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365664</v>
+        <v>197.4326649365659</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950601</v>
+        <v>322.3541198950594</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896747</v>
+        <v>449.7398382896737</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885935</v>
+        <v>551.3848716885924</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546197</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546197</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546197</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546197</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546197</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546197</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546197</v>
+        <v>360.1545870487315</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546197</v>
+        <v>360.1545870487315</v>
       </c>
       <c r="X4" t="n">
-        <v>614.8390752546197</v>
+        <v>360.1545870487315</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.8390752546197</v>
+        <v>360.1545870487315</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1964.838184214438</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>460.0017891507292</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4652,37 +4652,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>154.3210362349349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>154.3210362349349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>154.3210362349349</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>154.3210362349349</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>154.3210362349349</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>154.3210362349349</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.520561484594</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1390.593246102217</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1032.327547495467</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>646.5392948972226</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>235.553390107615</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600564</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477206</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E10" t="n">
-        <v>548.5954256477206</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F10" t="n">
-        <v>548.5954256477206</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="G10" t="n">
-        <v>379.595625386053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807095</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5111,7 +5111,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,22 +5120,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902953</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>432.2000540015823</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1895.835173990573</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1606.732307116217</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1352.04781891033</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1062.630648873369</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>834.6410979753522</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>613.848518831822</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="14">
@@ -5260,46 +5260,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>3999.389552984375</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4394.163919341553</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,19 +5357,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>736.381378691721</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C16" t="n">
-        <v>654.7198286198654</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D16" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,19 +5451,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
         <v>1542.890966501056</v>
@@ -5472,16 +5472,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1253.788099626699</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>964.3709295897384</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>736.381378691721</v>
+        <v>635.4064359321671</v>
       </c>
       <c r="Y16" t="n">
-        <v>736.381378691721</v>
+        <v>414.6138567886371</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5518,22 +5518,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2628.734306600803</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3175.513123659585</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3678.485594538922</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P17" t="n">
-        <v>4391.840681985868</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.4972173763014</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5700,25 +5700,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1728.132337365293</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.029470490936</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1184.344982285049</v>
+        <v>942.4098031820731</v>
       </c>
       <c r="W19" t="n">
-        <v>894.9278122480886</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="X19" t="n">
-        <v>666.9382613500712</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.1456822065411</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="20">
@@ -5752,22 +5752,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>351.301436796792</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>685.1208104866384</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1549.639626139993</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.189928969822</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196468</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
         <v>4405.689038432984</v>
@@ -5785,13 +5785,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1287.353969321595</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>1059.364418423578</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>838.5718392800478</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5995,46 +5995,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1963.918173296941</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2497.450077968866</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3044.228895027648</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6180,16 +6180,16 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
         <v>277.2094992786341</v>
@@ -6205,73 +6205,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.858917622689</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6305,28 +6305,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1036.495701195955</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>867.5595182680486</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>717.4428788557128</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>569.5297852733197</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>422.6398377754093</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104703</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104703</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1956.343466104703</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1666.926296067742</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1438.936745169725</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1218.144166026195</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>702.9183254305503</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622689</v>
+        <v>1153.952538678959</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,13 +6542,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>619.8559841413794</v>
+        <v>970.5459590456827</v>
       </c>
       <c r="C31" t="n">
-        <v>450.9198012134725</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D31" t="n">
-        <v>450.9198012134725</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E31" t="n">
-        <v>450.9198012134725</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>450.9198012134725</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
         <v>339.1038984121913</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>909.27315417834</v>
+        <v>1419.32808908723</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413794</v>
+        <v>1419.32808908723</v>
       </c>
       <c r="X31" t="n">
-        <v>619.8559841413794</v>
+        <v>1191.338538189213</v>
       </c>
       <c r="Y31" t="n">
-        <v>619.8559841413794</v>
+        <v>970.5459590456827</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>956.4397908460646</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,13 +6779,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>825.859557377715</v>
+        <v>656.6259356382594</v>
       </c>
       <c r="C34" t="n">
-        <v>656.9233744498081</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D34" t="n">
-        <v>506.8067350374723</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E34" t="n">
-        <v>506.8067350374723</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
         <v>192.8867116300491</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862231</v>
+        <v>1939.586627083955</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431757</v>
+        <v>1717.820011653481</v>
       </c>
       <c r="U34" t="n">
-        <v>1644.746393431757</v>
+        <v>1428.717144779124</v>
       </c>
       <c r="V34" t="n">
-        <v>1564.058857456223</v>
+        <v>1174.032656573237</v>
       </c>
       <c r="W34" t="n">
-        <v>1274.641687419262</v>
+        <v>884.6154865362768</v>
       </c>
       <c r="X34" t="n">
-        <v>1046.652136521245</v>
+        <v>656.6259356382594</v>
       </c>
       <c r="Y34" t="n">
-        <v>825.859557377715</v>
+        <v>656.6259356382594</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6925,7 +6925,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6937,19 +6937,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6973,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,13 +7016,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>481.6968904858343</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C37" t="n">
-        <v>312.7607075579274</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D37" t="n">
-        <v>312.7607075579274</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E37" t="n">
-        <v>312.7607075579274</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>165.870760060017</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1650.077551905059</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208122</v>
+        <v>1650.077551905059</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838516</v>
+        <v>1360.660381868098</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858343</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.6968904858343</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
     <row r="38">
@@ -7159,10 +7159,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7174,22 +7174,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>907.902424901197</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1772.421240554552</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7201,10 +7201,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>481.6968904858343</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C40" t="n">
-        <v>481.6968904858343</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D40" t="n">
-        <v>331.5802510734985</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E40" t="n">
-        <v>331.5802510734985</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F40" t="n">
-        <v>331.5802510734985</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>163.8774144482175</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7335,49 +7335,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927061</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892255</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518533</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952193</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1942.779077502979</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931529</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208122</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838516</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858343</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y40" t="n">
-        <v>481.6968904858343</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176192</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
         <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2215.249704195856</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N41" t="n">
-        <v>3195.001976422503</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O41" t="n">
         <v>3697.97444730184</v>
@@ -7450,7 +7450,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,22 +7490,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>264.4972173763014</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1919.818221538466</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1728.132337365293</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1728.132337365293</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1439.029470490936</v>
+        <v>1861.230154837811</v>
       </c>
       <c r="V43" t="n">
-        <v>1184.344982285049</v>
+        <v>1606.545666631924</v>
       </c>
       <c r="W43" t="n">
-        <v>894.9278122480886</v>
+        <v>1317.128496594963</v>
       </c>
       <c r="X43" t="n">
-        <v>666.9382613500712</v>
+        <v>1089.138945696946</v>
       </c>
       <c r="Y43" t="n">
-        <v>446.1456822065411</v>
+        <v>868.3463665534156</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,19 +7648,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7678,16 +7678,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7727,22 +7727,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
@@ -7809,7 +7809,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,19 +7821,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
         <v>1559.196154437386</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>64.58008902263003</v>
       </c>
       <c r="K3" t="n">
-        <v>53.60948744535382</v>
+        <v>115.1204337631314</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627882</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8938,19 +8938,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>189.7998007892655</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>11.64153443578837</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,25 +9166,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q17" t="n">
-        <v>13.98823883546996</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>67.53663776704252</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>410.4190035206666</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>85.51392558917576</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>172.4995987156013</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>123.4719563470481</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>103.7862464855155</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476853</v>
+        <v>96.13798426930725</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>109.5593187178201</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>159.6457400831808</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>86.40188652749082</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>152.1724499918691</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.55208449419945</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>32.80528251369498</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>122.4735237989719</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>83.32522828944241</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>55.32806448575985</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>226.2532075583115</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.1797547009003</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>172.2569827080493</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>96.41917990352185</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>172.7776084794065</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>77.12179871449597</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>75.50340795433632</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>52.77216054947294</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>192.0496600513887</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>825403.6148750841</v>
+        <v>825403.614875084</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>825403.6148750841</v>
+        <v>825403.6148750843</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>825403.6148750841</v>
+        <v>825403.6148750843</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>825403.6148750843</v>
+        <v>825403.6148750841</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>825403.6148750841</v>
+        <v>825403.6148750843</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>825403.6148750843</v>
+        <v>825403.6148750841</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825403.6148750843</v>
+        <v>825403.6148750844</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>825403.614875084</v>
+        <v>825403.6148750841</v>
       </c>
     </row>
     <row r="16">
@@ -26316,19 +26316,19 @@
         <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982131</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>595622.6803304747</v>
+        <v>595622.6803304745</v>
       </c>
       <c r="F2" t="n">
+        <v>595622.6803304745</v>
+      </c>
+      <c r="G2" t="n">
         <v>595622.6803304749</v>
-      </c>
-      <c r="G2" t="n">
-        <v>595622.6803304745</v>
       </c>
       <c r="H2" t="n">
         <v>595622.6803304751</v>
@@ -26337,25 +26337,25 @@
         <v>595622.6803304749</v>
       </c>
       <c r="J2" t="n">
+        <v>595622.680330475</v>
+      </c>
+      <c r="K2" t="n">
+        <v>595622.680330475</v>
+      </c>
+      <c r="L2" t="n">
+        <v>595622.6803304747</v>
+      </c>
+      <c r="M2" t="n">
         <v>595622.6803304749</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>595622.6803304746</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>595622.680330475</v>
       </c>
-      <c r="M2" t="n">
-        <v>595622.6803304747</v>
-      </c>
-      <c r="N2" t="n">
-        <v>595622.6803304749</v>
-      </c>
-      <c r="O2" t="n">
-        <v>595622.6803304744</v>
-      </c>
       <c r="P2" t="n">
-        <v>595622.6803304749</v>
+        <v>595622.6803304743</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106481</v>
+        <v>493391.6844106468</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446905</v>
+        <v>91792.63957447025</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832159</v>
+        <v>154726.5356832157</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220078</v>
+        <v>21342.09858220104</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861104</v>
+        <v>244465.9635861107</v>
       </c>
       <c r="C4" t="n">
-        <v>218780.3249983351</v>
+        <v>218780.324998335</v>
       </c>
       <c r="D4" t="n">
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>32032.95503079773</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="G4" t="n">
         <v>32032.95503079768</v>
@@ -26438,28 +26438,28 @@
         <v>32032.95503079769</v>
       </c>
       <c r="I4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="J4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="K4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="M4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079766</v>
       </c>
       <c r="N4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="O4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="P4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079769</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140123</v>
+        <v>76261.10613140117</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26493,25 +26493,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-198337.426729947</v>
+        <v>-198337.426729946</v>
       </c>
       <c r="C6" t="n">
-        <v>222349.2847619995</v>
+        <v>222349.284761998</v>
       </c>
       <c r="D6" t="n">
-        <v>314141.9243364681</v>
+        <v>314141.924336468</v>
       </c>
       <c r="E6" t="n">
-        <v>-260171.2069474432</v>
+        <v>-260843.1618497015</v>
       </c>
       <c r="F6" t="n">
-        <v>467206.2070459635</v>
+        <v>466534.2521437053</v>
       </c>
       <c r="G6" t="n">
-        <v>467206.2070459632</v>
+        <v>466534.2521437056</v>
       </c>
       <c r="H6" t="n">
-        <v>467206.2070459638</v>
+        <v>466534.2521437057</v>
       </c>
       <c r="I6" t="n">
-        <v>467206.2070459634</v>
+        <v>466534.2521437055</v>
       </c>
       <c r="J6" t="n">
-        <v>312479.6713627476</v>
+        <v>311807.71646049</v>
       </c>
       <c r="K6" t="n">
-        <v>445864.1084637624</v>
+        <v>445192.1535615046</v>
       </c>
       <c r="L6" t="n">
-        <v>467206.2070459636</v>
+        <v>466534.2521437055</v>
       </c>
       <c r="M6" t="n">
-        <v>337563.8922070187</v>
+        <v>336891.9373047609</v>
       </c>
       <c r="N6" t="n">
-        <v>467206.2070459635</v>
+        <v>466534.2521437054</v>
       </c>
       <c r="O6" t="n">
-        <v>467206.207045963</v>
+        <v>466534.2521437057</v>
       </c>
       <c r="P6" t="n">
-        <v>467206.2070459635</v>
+        <v>466534.252143705</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435497</v>
+        <v>306.3599178435488</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435497</v>
+        <v>306.3599178435488</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353689</v>
+        <v>71.38374637353786</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330789</v>
+        <v>82.92444508330887</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330789</v>
+        <v>82.92444508330887</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330789</v>
+        <v>82.92444508330887</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251.6712992629776</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>228.360721247028</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958796</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174334</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>99.19432330363597</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>77.53282428173551</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>80.45316034336462</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>28.84147178615237</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731838</v>
+        <v>39.90169565731851</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27596,7 +27596,7 @@
         <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.46238515859977</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>11.78595076373392</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>80.7913071104505</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>66.90748812322926</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>385.9211820612782</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,13 +27909,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,22 +28019,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>120.168123766492</v>
       </c>
       <c r="H10" t="n">
-        <v>13.94035269263867</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>3.534950110406498e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672561</v>
+        <v>1.231597659672557</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212162</v>
+        <v>12.61309953212158</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452645</v>
+        <v>47.4811687745263</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676341</v>
+        <v>104.5303118676338</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015736</v>
+        <v>156.6638408015732</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787778</v>
+        <v>194.3553476787772</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589797</v>
+        <v>216.2577725589791</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095244</v>
+        <v>219.7570494095237</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811553</v>
+        <v>207.5103501811547</v>
       </c>
       <c r="P2" t="n">
-        <v>177.105282957989</v>
+        <v>177.1052829579884</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709653</v>
+        <v>132.9986917709649</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940657</v>
+        <v>77.36434648940634</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978851</v>
+        <v>28.06503166978843</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216638</v>
+        <v>5.391318755216622</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380485</v>
+        <v>0.09852781277380455</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540504</v>
+        <v>0.6589628421540484</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014119</v>
+        <v>6.3641937650141</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784779</v>
+        <v>22.68797504784772</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403685</v>
+        <v>62.25753764403667</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683582</v>
+        <v>106.4080480683579</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966503</v>
+        <v>143.0787521966499</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247346</v>
+        <v>166.9661552247341</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302326</v>
+        <v>171.3852525302321</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382929</v>
+        <v>156.7840232382924</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723818</v>
+        <v>125.8330009723814</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338371</v>
+        <v>84.11602876338345</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163483</v>
+        <v>40.91349997163471</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422106</v>
+        <v>12.23994577422102</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945491</v>
+        <v>2.656082683945484</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276649</v>
+        <v>0.04335281856276636</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654175</v>
+        <v>0.5524523108654159</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967079</v>
+        <v>4.911803272967065</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584365</v>
+        <v>16.6137476758436</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818501</v>
+        <v>39.0583783781849</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509122</v>
+        <v>64.18491393509103</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448218</v>
+        <v>82.13459174448194</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502175</v>
+        <v>86.59941087502149</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361436</v>
+        <v>84.54027044361411</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395922</v>
+        <v>78.086622993959</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230464</v>
+        <v>66.81659585230445</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437601</v>
+        <v>46.26034759437587</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400322</v>
+        <v>24.84026481400315</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263681</v>
+        <v>9.627737090263652</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515874</v>
+        <v>2.360478055515867</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084099</v>
+        <v>0.0301337624108409</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32557,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302159</v>
+        <v>92.58102251302128</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277578</v>
+        <v>260.7194023277574</v>
       </c>
       <c r="L2" t="n">
-        <v>376.250147259241</v>
+        <v>376.2501472592404</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245395</v>
+        <v>435.4250728245388</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249176</v>
+        <v>427.690910224917</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222139</v>
+        <v>358.2123200222134</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742021</v>
+        <v>267.6709953742015</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564205</v>
+        <v>123.0079925564201</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777899</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>22.17609653935306</v>
+        <v>83.68704285713035</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202353</v>
+        <v>375.3647177202349</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527162</v>
+        <v>490.5371850527157</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904528</v>
+        <v>519.3859147904523</v>
       </c>
       <c r="O3" t="n">
-        <v>408.050098070578</v>
+        <v>408.0500980705775</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979887</v>
+        <v>310.3213621979883</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132113</v>
+        <v>154.211542413211</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920836</v>
+        <v>41.91542210920818</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047983</v>
+        <v>109.7246170047981</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368623</v>
+        <v>126.1832878368621</v>
       </c>
       <c r="N4" t="n">
-        <v>128.672442822843</v>
+        <v>128.6724428228427</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079989</v>
+        <v>102.6717509079987</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719813</v>
+        <v>64.09515511719793</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307148</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>631.8075074371754</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>742.1016362021768</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>262.4358392395079</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q17" t="n">
-        <v>264.7825436391894</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35971,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>258.3236387357551</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>631.8075074371754</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36205,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36363,7 +36363,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>866.0091179129988</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36372,16 +36372,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>422.7052121445763</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,25 +37071,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>509.6908852710018</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>460.6632429024486</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721702017</v>
       </c>
       <c r="M40" t="n">
         <v>347.6333793934838</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>502.5482327048871</v>
+        <v>502.5482327048862</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359043</v>
+        <v>604.1909851575264</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2319026.472355025</v>
+        <v>2322431.963479473</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095089</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>185.7104186084345</v>
+        <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100.4749385758553</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174345</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
         <v>251.2471250950627</v>
@@ -752,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>28.33842618974685</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100843</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>80.33064353906846</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>121.384264862796</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>109.9952554652623</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848788</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>401.9982192570611</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>129.6553603084662</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,10 +1074,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>6.908481403325515</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>27.8629879595168</v>
+        <v>164.241764346741</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>47.14167849255889</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.27266146411722</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>90.4194868075659</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,16 +1821,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>117.4128986855877</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>73.53720539716808</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>45.106837292256</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>219.332360810133</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2137,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,19 +2295,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>139.9839462079636</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>164.0494745376191</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="Y25" t="n">
-        <v>113.5103646250816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,10 +3009,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>25.88443576551655</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>37.38100496017498</v>
       </c>
       <c r="S34" t="n">
-        <v>16.58927063054162</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3325,7 +3325,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>31.80684691296301</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>113.4342297262064</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3681,7 +3681,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>13.42874471571101</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>148.5873298926981</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>94.16217815422416</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>203.4068132192029</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>124.2292170629838</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1758.897680571375</v>
+        <v>1282.974104634893</v>
       </c>
       <c r="C2" t="n">
-        <v>1389.935163630963</v>
+        <v>914.0115876944815</v>
       </c>
       <c r="D2" t="n">
-        <v>1031.669465024213</v>
+        <v>555.745889087731</v>
       </c>
       <c r="E2" t="n">
-        <v>645.8812124259684</v>
+        <v>169.9576364894868</v>
       </c>
       <c r="F2" t="n">
-        <v>234.8953076363609</v>
+        <v>163.0121357402833</v>
       </c>
       <c r="G2" t="n">
-        <v>47.30902621369974</v>
+        <v>148.7988631590081</v>
       </c>
       <c r="H2" t="n">
-        <v>47.30902621369974</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369974</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015909</v>
+        <v>138.9642385015906</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060706</v>
+        <v>397.0764468060702</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927187</v>
+        <v>769.5640925927182</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689012</v>
+        <v>1200.634914689011</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.04891581168</v>
+        <v>1624.048915811679</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633671</v>
+        <v>1978.67911263367</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054131</v>
+        <v>2243.673398054129</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684987</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684987</v>
+        <v>2292.214167804436</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684987</v>
+        <v>2109.431301222156</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.451310684987</v>
+        <v>1889.527734748505</v>
       </c>
       <c r="U2" t="n">
-        <v>2111.666335841489</v>
+        <v>1635.742759905007</v>
       </c>
       <c r="V2" t="n">
-        <v>2111.666335841489</v>
+        <v>1635.742759905007</v>
       </c>
       <c r="W2" t="n">
-        <v>1758.897680571375</v>
+        <v>1282.974104634893</v>
       </c>
       <c r="X2" t="n">
-        <v>1758.897680571375</v>
+        <v>1282.974104634893</v>
       </c>
       <c r="Y2" t="n">
-        <v>1758.897680571375</v>
+        <v>1282.974104634893</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>843.1583574384904</v>
+        <v>783.40913517655</v>
       </c>
       <c r="C3" t="n">
-        <v>668.7053281573634</v>
+        <v>608.956105895423</v>
       </c>
       <c r="D3" t="n">
-        <v>519.7709184961121</v>
+        <v>460.0216962341717</v>
       </c>
       <c r="E3" t="n">
-        <v>360.5334634906566</v>
+        <v>300.7842412287162</v>
       </c>
       <c r="F3" t="n">
-        <v>213.9989055175416</v>
+        <v>154.2496832556011</v>
       </c>
       <c r="G3" t="n">
-        <v>75.93369913263595</v>
+        <v>154.2496832556011</v>
       </c>
       <c r="H3" t="n">
-        <v>47.30902621369974</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369974</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369974</v>
+        <v>108.2048630683006</v>
       </c>
       <c r="K3" t="n">
-        <v>130.1591986422588</v>
+        <v>338.9063907138122</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852913</v>
+        <v>710.5174612568446</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874798</v>
+        <v>1196.149274459033</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030028</v>
+        <v>1710.341330101581</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119899</v>
+        <v>2058.233162108977</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695908</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684987</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885989</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926779</v>
+        <v>2284.309246504108</v>
       </c>
       <c r="T3" t="n">
-        <v>2144.554785926779</v>
+        <v>2084.805563664839</v>
       </c>
       <c r="U3" t="n">
-        <v>1916.374958388989</v>
+        <v>1856.625736127049</v>
       </c>
       <c r="V3" t="n">
-        <v>1681.222850157247</v>
+        <v>1621.473627895306</v>
       </c>
       <c r="W3" t="n">
-        <v>1426.985493429045</v>
+        <v>1367.236271167105</v>
       </c>
       <c r="X3" t="n">
-        <v>1219.133993223512</v>
+        <v>1159.384770961572</v>
       </c>
       <c r="Y3" t="n">
-        <v>1011.373694458558</v>
+        <v>951.6244721966179</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360.1545870487315</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="C4" t="n">
-        <v>360.1545870487315</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="D4" t="n">
-        <v>360.1545870487315</v>
+        <v>464.7224358422819</v>
       </c>
       <c r="E4" t="n">
-        <v>360.1545870487315</v>
+        <v>316.8093422598888</v>
       </c>
       <c r="F4" t="n">
-        <v>213.2646395508212</v>
+        <v>169.9193947619785</v>
       </c>
       <c r="G4" t="n">
-        <v>213.2646395508212</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="H4" t="n">
-        <v>213.2646395508212</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="I4" t="n">
-        <v>102.158320899041</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369974</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181583</v>
+        <v>88.80529410181572</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365659</v>
+        <v>197.4326649365657</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950594</v>
+        <v>322.3541198950591</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896737</v>
+        <v>449.7398382896732</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885924</v>
+        <v>551.3848716885918</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546184</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546184</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546184</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546184</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546184</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546184</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="V4" t="n">
-        <v>360.1545870487315</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="W4" t="n">
-        <v>360.1545870487315</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="X4" t="n">
-        <v>360.1545870487315</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="Y4" t="n">
-        <v>360.1545870487315</v>
+        <v>614.8390752546177</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>466.9472898999326</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>466.9472898999326</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>460.0017891507292</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2334.977903450294</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2081.216118088385</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4658,19 +4658,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073964</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1759.555763042629</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C8" t="n">
-        <v>1390.593246102217</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D8" t="n">
-        <v>1032.327547495467</v>
+        <v>1170.083887280542</v>
       </c>
       <c r="E8" t="n">
-        <v>646.5392948972226</v>
+        <v>784.2956346822975</v>
       </c>
       <c r="F8" t="n">
-        <v>235.553390107615</v>
+        <v>373.30972989269</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.555763042629</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>1759.555763042629</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="9">
@@ -4883,10 +4883,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598708</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>396.3638799638587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>248.4507863814656</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>101.5608388835552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5020,46 +5020,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888615</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L11" t="n">
-        <v>1732.058578925876</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M11" t="n">
-        <v>2265.590483597801</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N11" t="n">
-        <v>2812.369300656583</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5123,13 +5123,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
         <v>1715.000032008795</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>410.7144041584436</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="C13" t="n">
-        <v>241.7782212305366</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="D13" t="n">
-        <v>241.7782212305366</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="E13" t="n">
-        <v>241.7782212305366</v>
+        <v>333.7837969034421</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>186.8938494055317</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>186.8938494055317</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5202,16 +5202,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T13" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858347</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y13" t="n">
-        <v>481.6968904858347</v>
+        <v>481.6968904858352</v>
       </c>
     </row>
     <row r="14">
@@ -5278,28 +5278,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K14" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1971.087962216428</v>
       </c>
       <c r="M14" t="n">
         <v>2949.638265046256</v>
       </c>
       <c r="N14" t="n">
-        <v>3496.417082105038</v>
+        <v>3573.00145687072</v>
       </c>
       <c r="O14" t="n">
-        <v>3999.389552984375</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4394.163919341553</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,7 +5387,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5396,7 +5396,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5439,16 +5439,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1334.461621697385</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>1045.044451660424</v>
       </c>
       <c r="X16" t="n">
-        <v>635.4064359321671</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y16" t="n">
-        <v>414.6138567886371</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="17">
@@ -5494,49 +5494,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O17" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5548,13 +5548,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.2000540015823</v>
+        <v>754.9793597803102</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>586.0431768524033</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>435.9265374400676</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>288.0134438576745</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>141.1234963597641</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5703,22 +5703,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V19" t="n">
-        <v>942.4098031820731</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W19" t="n">
-        <v>652.9926331451124</v>
+        <v>1385.409954652097</v>
       </c>
       <c r="X19" t="n">
-        <v>652.9926331451124</v>
+        <v>1157.42040375408</v>
       </c>
       <c r="Y19" t="n">
-        <v>432.2000540015823</v>
+        <v>936.62782461055</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5758,19 +5758,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1732.058578925876</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2265.590483597801</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2812.369300656583</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5785,13 +5785,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>656.9233744498081</v>
+        <v>675.7429179653792</v>
       </c>
       <c r="C22" t="n">
-        <v>656.9233744498081</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D22" t="n">
         <v>506.8067350374723</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1453.060509258584</v>
+        <v>1401.493041038467</v>
       </c>
       <c r="V22" t="n">
-        <v>1453.060509258584</v>
+        <v>1146.80855283258</v>
       </c>
       <c r="W22" t="n">
-        <v>1287.353969321595</v>
+        <v>857.3913827956189</v>
       </c>
       <c r="X22" t="n">
-        <v>1059.364418423578</v>
+        <v>857.3913827956189</v>
       </c>
       <c r="Y22" t="n">
-        <v>838.5718392800478</v>
+        <v>857.3913827956189</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -6010,31 +6010,31 @@
         <v>4231.233819318589</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6189,10 +6189,10 @@
         <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O26" t="n">
-        <v>3517.878731871643</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P26" t="n">
-        <v>4231.233819318589</v>
+        <v>4243.923885728434</v>
       </c>
       <c r="Q26" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
@@ -6451,49 +6451,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>702.9183254305503</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1153.952538678959</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>1687.484443350884</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.5459590456827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1419.32808908723</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1419.32808908723</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1191.338538189213</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>970.5459590456827</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
         <v>1646.988141143014</v>
@@ -6688,64 +6688,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>416.109192788863</v>
       </c>
       <c r="K32" t="n">
-        <v>956.4397908460646</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L32" t="n">
-        <v>1407.474004094473</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M32" t="n">
-        <v>1941.005908766398</v>
+        <v>2055.398642844496</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.758180993045</v>
+        <v>2602.177459903278</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>656.6259356382594</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="C34" t="n">
-        <v>487.6897527103525</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D34" t="n">
-        <v>487.6897527103525</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7766591279594</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F34" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1918.58487523584</v>
       </c>
       <c r="S34" t="n">
-        <v>1939.586627083955</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="T34" t="n">
-        <v>1717.820011653481</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U34" t="n">
-        <v>1428.717144779124</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V34" t="n">
-        <v>1174.032656573237</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W34" t="n">
-        <v>884.6154865362768</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X34" t="n">
-        <v>656.6259356382594</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y34" t="n">
-        <v>656.6259356382594</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="35">
@@ -6922,10 +6922,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6970,7 +6970,7 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>730.2297869963112</v>
+        <v>691.980755747597</v>
       </c>
       <c r="C37" t="n">
-        <v>561.2936040684043</v>
+        <v>523.0445728196901</v>
       </c>
       <c r="D37" t="n">
-        <v>411.1769646560685</v>
+        <v>372.9279334073543</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>225.0148398249612</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U37" t="n">
-        <v>1650.077551905059</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V37" t="n">
-        <v>1650.077551905059</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W37" t="n">
-        <v>1360.660381868098</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="X37" t="n">
-        <v>1132.670830970081</v>
+        <v>1094.421799721367</v>
       </c>
       <c r="Y37" t="n">
-        <v>911.8782518265509</v>
+        <v>873.6292205778367</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7177,19 +7177,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>907.902424901197</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1772.421240554552</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2750.97154338438</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.7228313225</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7201,19 +7201,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7256,10 +7256,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458018</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7338,46 +7338,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927061</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892255</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518533</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952193</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1942.779077502979</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1751.093193329805</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1751.093193329805</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1751.093193329805</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V40" t="n">
-        <v>1751.093193329805</v>
+        <v>1943.184686185112</v>
       </c>
       <c r="W40" t="n">
-        <v>1751.093193329805</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X40" t="n">
-        <v>1523.103642431788</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y40" t="n">
-        <v>1302.311063288258</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,19 +7414,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3195.001976422504</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3697.97444730184</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7438,25 +7438,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>686.6979017231758</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C43" t="n">
-        <v>686.6979017231758</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D43" t="n">
-        <v>536.5812623108401</v>
+        <v>391.866433243363</v>
       </c>
       <c r="E43" t="n">
-        <v>388.668168728447</v>
+        <v>391.866433243363</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7782212305366</v>
+        <v>391.866433243363</v>
       </c>
       <c r="G43" t="n">
         <v>241.7782212305366</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1861.230154837811</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1606.545666631924</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>1317.128496594963</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>1089.138945696946</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>868.3463665534156</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7651,22 +7651,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7678,16 +7678,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7733,7 +7733,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902263003</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>115.1204337631314</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>337.2181121227137</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>55.86574532263818</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570117</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2173930448433</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>77.35795430876897</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>11.64153443578837</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7011105564207</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>176.2173930448433</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9658,10 +9658,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.2173930448432</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>163.3991441460101</v>
       </c>
       <c r="R26" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>85.51392558917576</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>29.61882225792002</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K32" t="n">
-        <v>172.4995987156013</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>123.4719563470481</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>103.7862464855144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11299,25 +11299,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>96.13798426930725</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.5593187178201</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>54.33552810675488</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>134.7247446382403</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>152.1724499918691</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>120.9189709667722</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>32.80528251369498</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>146.2278919976493</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>122.4735237989719</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="Y25" t="n">
-        <v>105.0742887270132</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>226.2532075583115</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>51.55114770987235</v>
       </c>
       <c r="S34" t="n">
-        <v>173.1797547009003</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>113.6142011099682</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>172.7776084794065</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>75.50340795433632</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -25608,10 +25608,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>17.43847836633017</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>192.0496600513887</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26073,13 +26073,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>16.14213605696631</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>94.35543628911095</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>825403.6148750843</v>
+        <v>825403.614875084</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>825403.6148750843</v>
+        <v>825403.6148750841</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>825403.6148750841</v>
+        <v>825403.6148750843</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>825403.6148750843</v>
+        <v>825403.614875084</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825403.6148750844</v>
+        <v>825403.6148750841</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>825403.6148750841</v>
+        <v>825403.6148750843</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982125</v>
@@ -26325,37 +26325,37 @@
         <v>595622.6803304745</v>
       </c>
       <c r="F2" t="n">
-        <v>595622.6803304745</v>
+        <v>595622.6803304744</v>
       </c>
       <c r="G2" t="n">
+        <v>595622.6803304747</v>
+      </c>
+      <c r="H2" t="n">
+        <v>595622.6803304744</v>
+      </c>
+      <c r="I2" t="n">
+        <v>595622.6803304751</v>
+      </c>
+      <c r="J2" t="n">
         <v>595622.6803304749</v>
       </c>
-      <c r="H2" t="n">
-        <v>595622.6803304751</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>595622.6803304749</v>
-      </c>
-      <c r="J2" t="n">
-        <v>595622.680330475</v>
-      </c>
-      <c r="K2" t="n">
-        <v>595622.680330475</v>
       </c>
       <c r="L2" t="n">
         <v>595622.6803304747</v>
       </c>
       <c r="M2" t="n">
-        <v>595622.6803304749</v>
+        <v>595622.6803304744</v>
       </c>
       <c r="N2" t="n">
-        <v>595622.6803304746</v>
+        <v>595622.6803304744</v>
       </c>
       <c r="O2" t="n">
         <v>595622.680330475</v>
       </c>
       <c r="P2" t="n">
-        <v>595622.6803304743</v>
+        <v>595622.6803304749</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106468</v>
+        <v>493391.6844106463</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957447025</v>
+        <v>91792.63957447067</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832157</v>
+        <v>154726.5356832156</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220104</v>
+        <v>21342.09858220111</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389447</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861107</v>
+        <v>244465.9635861109</v>
       </c>
       <c r="C4" t="n">
-        <v>218780.324998335</v>
+        <v>218780.3249983351</v>
       </c>
       <c r="D4" t="n">
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
+        <v>32032.95503079768</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32032.95503079766</v>
+      </c>
+      <c r="G4" t="n">
         <v>32032.95503079769</v>
-      </c>
-      <c r="F4" t="n">
-        <v>32032.95503079769</v>
-      </c>
-      <c r="G4" t="n">
-        <v>32032.95503079768</v>
       </c>
       <c r="H4" t="n">
         <v>32032.95503079769</v>
@@ -26441,25 +26441,25 @@
         <v>32032.95503079769</v>
       </c>
       <c r="J4" t="n">
+        <v>32032.95503079768</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32032.95503079768</v>
+      </c>
+      <c r="L4" t="n">
+        <v>32032.95503079771</v>
+      </c>
+      <c r="M4" t="n">
         <v>32032.95503079769</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32032.9550307977</v>
-      </c>
-      <c r="L4" t="n">
-        <v>32032.95503079768</v>
-      </c>
-      <c r="M4" t="n">
-        <v>32032.95503079766</v>
       </c>
       <c r="N4" t="n">
         <v>32032.95503079768</v>
       </c>
       <c r="O4" t="n">
-        <v>32032.95503079768</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="P4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.9550307977</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140117</v>
+        <v>76261.10613140112</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26496,13 +26496,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26524,46 +26524,46 @@
         <v>-198337.426729946</v>
       </c>
       <c r="C6" t="n">
-        <v>222349.284761998</v>
+        <v>222349.2847619977</v>
       </c>
       <c r="D6" t="n">
         <v>314141.924336468</v>
       </c>
       <c r="E6" t="n">
-        <v>-260843.1618497015</v>
+        <v>-260238.4024376695</v>
       </c>
       <c r="F6" t="n">
-        <v>466534.2521437053</v>
+        <v>467139.0115557373</v>
       </c>
       <c r="G6" t="n">
-        <v>466534.2521437056</v>
+        <v>467139.0115557375</v>
       </c>
       <c r="H6" t="n">
-        <v>466534.2521437057</v>
+        <v>467139.0115557372</v>
       </c>
       <c r="I6" t="n">
-        <v>466534.2521437055</v>
+        <v>467139.0115557379</v>
       </c>
       <c r="J6" t="n">
-        <v>311807.71646049</v>
+        <v>312412.4758725221</v>
       </c>
       <c r="K6" t="n">
-        <v>445192.1535615046</v>
+        <v>445796.9129735366</v>
       </c>
       <c r="L6" t="n">
-        <v>466534.2521437055</v>
+        <v>467139.0115557374</v>
       </c>
       <c r="M6" t="n">
-        <v>336891.9373047609</v>
+        <v>337496.6967167925</v>
       </c>
       <c r="N6" t="n">
-        <v>466534.2521437054</v>
+        <v>467139.0115557373</v>
       </c>
       <c r="O6" t="n">
-        <v>466534.2521437057</v>
+        <v>467139.0115557379</v>
       </c>
       <c r="P6" t="n">
-        <v>466534.252143705</v>
+        <v>467139.0115557376</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435488</v>
+        <v>306.3599178435484</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712467</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435488</v>
+        <v>306.3599178435484</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353786</v>
+        <v>71.38374637353814</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712467</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330887</v>
+        <v>82.92444508330939</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712467</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330887</v>
+        <v>82.92444508330917</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712467</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330887</v>
+        <v>82.92444508330939</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>228.360721247028</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>226.3867640077903</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958796</v>
+        <v>162.9947207958797</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174334</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>77.53282428173551</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356735</v>
+        <v>66.70865780356738</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100848</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>79.11258179054835</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>46.05426218479738</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>28.84147178615237</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>54.30080173848793</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731851</v>
+        <v>39.90169565731858</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>152.4531265631664</v>
       </c>
       <c r="S4" t="n">
         <v>214.3888609467086</v>
@@ -27596,7 +27596,7 @@
         <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11.78595076373392</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>86.79296004919155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>385.9211820612782</v>
+        <v>249.542405674054</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>120.168123766492</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>3.534950110406498e-12</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672557</v>
+        <v>1.231597659672556</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212158</v>
+        <v>12.61309953212156</v>
       </c>
       <c r="I2" t="n">
-        <v>47.4811687745263</v>
+        <v>47.48116877452625</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676338</v>
+        <v>104.5303118676337</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015732</v>
+        <v>156.663840801573</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787772</v>
+        <v>194.355347678777</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589791</v>
+        <v>216.2577725589788</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095237</v>
+        <v>219.7570494095235</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811547</v>
+        <v>207.5103501811545</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579884</v>
+        <v>177.1052829579882</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709649</v>
+        <v>132.9986917709648</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940634</v>
+        <v>77.36434648940623</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978843</v>
+        <v>28.06503166978839</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216622</v>
+        <v>5.391318755216615</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380455</v>
+        <v>0.09852781277380443</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540484</v>
+        <v>0.6589628421540475</v>
       </c>
       <c r="H3" t="n">
-        <v>6.3641937650141</v>
+        <v>6.364193765014092</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784772</v>
+        <v>22.68797504784769</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403667</v>
+        <v>62.25753764403658</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683579</v>
+        <v>106.4080480683578</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966499</v>
+        <v>143.0787521966497</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247341</v>
+        <v>166.9661552247339</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302321</v>
+        <v>171.3852525302319</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382924</v>
+        <v>156.7840232382922</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723814</v>
+        <v>125.8330009723813</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338345</v>
+        <v>84.11602876338334</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163471</v>
+        <v>40.91349997163466</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422102</v>
+        <v>12.23994577422101</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945484</v>
+        <v>2.65608268394548</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276636</v>
+        <v>0.04335281856276631</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654159</v>
+        <v>0.5524523108654151</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967065</v>
+        <v>4.911803272967058</v>
       </c>
       <c r="I4" t="n">
-        <v>16.6137476758436</v>
+        <v>16.61374767584358</v>
       </c>
       <c r="J4" t="n">
-        <v>39.0583783781849</v>
+        <v>39.05837837818485</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509103</v>
+        <v>64.18491393509095</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448194</v>
+        <v>82.13459174448182</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502149</v>
+        <v>86.59941087502138</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361411</v>
+        <v>84.54027044361399</v>
       </c>
       <c r="O4" t="n">
-        <v>78.086622993959</v>
+        <v>78.08662299395888</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230445</v>
+        <v>66.81659585230436</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437587</v>
+        <v>46.26034759437581</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400315</v>
+        <v>24.84026481400311</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263652</v>
+        <v>9.62773709026364</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515867</v>
+        <v>2.360478055515864</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0301337624108409</v>
+        <v>0.03013376241084086</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32326,7 +32326,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302128</v>
+        <v>92.58102251302114</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277574</v>
+        <v>260.7194023277572</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592404</v>
+        <v>376.2501472592402</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245388</v>
+        <v>435.4250728245386</v>
       </c>
       <c r="N2" t="n">
-        <v>427.690910224917</v>
+        <v>427.6909102249167</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222134</v>
+        <v>358.2123200222131</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742015</v>
+        <v>267.6709953742013</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564201</v>
+        <v>123.00799255642</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>61.51094631777872</v>
       </c>
       <c r="K3" t="n">
-        <v>83.68704285713035</v>
+        <v>233.0318461065774</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202349</v>
+        <v>375.3647177202347</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527157</v>
+        <v>490.5371850527155</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904523</v>
+        <v>519.3859147904521</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705775</v>
+        <v>351.4058909165614</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979883</v>
+        <v>310.3213621979882</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.211542413211</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920818</v>
+        <v>41.91542210920809</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047981</v>
+        <v>109.724617004798</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368621</v>
+        <v>126.183287836862</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228427</v>
+        <v>128.6724428228426</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079987</v>
+        <v>102.6717509079986</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719793</v>
+        <v>64.09515511719785</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257243</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L11" t="n">
-        <v>631.8075074371754</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>629.6597897216805</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>262.4358392395079</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P17" t="n">
-        <v>684.4630967757926</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>631.8075074371754</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36135,13 +36135,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36378,10 +36378,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>427.0116978485627</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>414.1934489497296</v>
       </c>
       <c r="R26" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>422.7052121445763</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36843,7 +36843,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
@@ -36855,7 +36855,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257258</v>
       </c>
       <c r="K32" t="n">
-        <v>509.6908852710018</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37080,13 +37080,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>460.6632429024486</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721702017</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
         <v>347.6333793934838</v>
@@ -37782,22 +37782,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>502.5482327048862</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -38019,25 +38019,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>604.1909851575264</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
